--- a/examples/xlsx/font.xlsx
+++ b/examples/xlsx/font.xlsx
@@ -220,7 +220,7 @@
       <c r="B9" t="str" s="1">
         <v>u=singleAccounting</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" t="str" s="10">
         <v>演示文本</v>
       </c>
     </row>
@@ -231,7 +231,7 @@
       <c r="B10" t="str" s="1">
         <v>u=doubleAccounting</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" t="str" s="11">
         <v>演示文本</v>
       </c>
     </row>
